--- a/Data/Optimised_Networks/k_fold_online 3_20-20-12_15_0.001_50.xlsx
+++ b/Data/Optimised_Networks/k_fold_online 3_20-20-12_15_0.001_50.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3017272997991363</v>
+        <v>0.289868091758042</v>
       </c>
       <c r="C2" t="n">
-        <v>742.2744232850048</v>
+        <v>755.9227542411047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4203352609000977</v>
+        <v>0.3902145607312593</v>
       </c>
       <c r="E2" t="n">
         <v>300</v>
@@ -408,13 +408,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4407806315420587</v>
+        <v>0.4284678773354745</v>
       </c>
       <c r="C3" t="n">
-        <v>468.4218860082269</v>
+        <v>482.7080504934383</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7491497037405785</v>
+        <v>0.7194589227143391</v>
       </c>
       <c r="E3" t="n">
         <v>300</v>
@@ -428,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7017701892629055</v>
+        <v>0.6879089580514601</v>
       </c>
       <c r="C4" t="n">
-        <v>474.7967827912132</v>
+        <v>490.8419963983893</v>
       </c>
       <c r="D4" t="n">
-        <v>1.154475608432682</v>
+        <v>1.126678636270404</v>
       </c>
       <c r="E4" t="n">
         <v>300</v>
@@ -448,13 +448,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9536850922575999</v>
+        <v>0.940156421555188</v>
       </c>
       <c r="C5" t="n">
-        <v>345.6034070360543</v>
+        <v>362.4388551860261</v>
       </c>
       <c r="D5" t="n">
-        <v>1.510458873654239</v>
+        <v>1.48895534960005</v>
       </c>
       <c r="E5" t="n">
         <v>300</v>
@@ -468,13 +468,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.21116130761202</v>
+        <v>1.20062091873343</v>
       </c>
       <c r="C6" t="n">
-        <v>381.5581869647872</v>
+        <v>397.3316918811079</v>
       </c>
       <c r="D6" t="n">
-        <v>1.786927041250601</v>
+        <v>1.777994659324412</v>
       </c>
       <c r="E6" t="n">
         <v>300</v>
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.387273648904805</v>
+        <v>1.382872028479396</v>
       </c>
       <c r="C7" t="n">
-        <v>460.2472562108053</v>
+        <v>467.4317051240528</v>
       </c>
       <c r="D7" t="n">
-        <v>2.084389328009007</v>
+        <v>2.08903014745742</v>
       </c>
       <c r="E7" t="n">
         <v>300</v>
@@ -508,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.518835142988968</v>
+        <v>1.528736199438768</v>
       </c>
       <c r="C8" t="n">
-        <v>2810.957179710913</v>
+        <v>2818.131757845114</v>
       </c>
       <c r="D8" t="n">
-        <v>2.343560404098211</v>
+        <v>2.357959222032998</v>
       </c>
       <c r="E8" t="n">
         <v>300</v>
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.653811619024545</v>
+        <v>1.664890199498298</v>
       </c>
       <c r="C9" t="n">
-        <v>5118.440843715221</v>
+        <v>5138.06442930891</v>
       </c>
       <c r="D9" t="n">
-        <v>2.716513115651808</v>
+        <v>2.733032409046045</v>
       </c>
       <c r="E9" t="n">
         <v>300</v>
@@ -548,13 +548,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.83344917759524</v>
+        <v>1.839948424835036</v>
       </c>
       <c r="C10" t="n">
-        <v>6543.385776102313</v>
+        <v>6554.822432647997</v>
       </c>
       <c r="D10" t="n">
-        <v>2.958001318260851</v>
+        <v>2.968398473749963</v>
       </c>
       <c r="E10" t="n">
         <v>300</v>
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.017381701827921</v>
+        <v>2.016977332101446</v>
       </c>
       <c r="C11" t="n">
-        <v>8605.311468657643</v>
+        <v>8603.348852599691</v>
       </c>
       <c r="D11" t="n">
-        <v>3.104687362079816</v>
+        <v>3.102044117595857</v>
       </c>
       <c r="E11" t="n">
         <v>300</v>
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.168232297420486</v>
+        <v>2.162768136778725</v>
       </c>
       <c r="C12" t="n">
-        <v>10010.67653770149</v>
+        <v>9998.83246117429</v>
       </c>
       <c r="D12" t="n">
-        <v>3.343558618876096</v>
+        <v>3.330536283384058</v>
       </c>
       <c r="E12" t="n">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.289805290554371</v>
+        <v>2.280338593714523</v>
       </c>
       <c r="C13" t="n">
-        <v>11147.3643611653</v>
+        <v>11127.85827122171</v>
       </c>
       <c r="D13" t="n">
-        <v>3.503111317516125</v>
+        <v>3.481898608347583</v>
       </c>
       <c r="E13" t="n">
         <v>300</v>
@@ -628,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2418093368877698</v>
+        <v>0.2484968485736183</v>
       </c>
       <c r="C14" t="n">
-        <v>768.2844899019585</v>
+        <v>721.8435235564395</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2997162555883528</v>
+        <v>0.3037946416839439</v>
       </c>
       <c r="E14" t="n">
         <v>300</v>
@@ -648,13 +648,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3202394279364723</v>
+        <v>0.326753892767239</v>
       </c>
       <c r="C15" t="n">
-        <v>754.0009605855973</v>
+        <v>707.3766933963354</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5183538370806231</v>
+        <v>0.5221909499359763</v>
       </c>
       <c r="E15" t="n">
         <v>300</v>
@@ -668,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4140040988326441</v>
+        <v>0.4204335116568796</v>
       </c>
       <c r="C16" t="n">
-        <v>682.2068881846528</v>
+        <v>635.5228717869597</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6887511067041785</v>
+        <v>0.6924961449772352</v>
       </c>
       <c r="E16" t="n">
         <v>300</v>
@@ -688,13 +688,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5679397343396217</v>
+        <v>0.5740708552757116</v>
       </c>
       <c r="C17" t="n">
-        <v>596.1359005217873</v>
+        <v>549.1739287083351</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9531192931869197</v>
+        <v>0.9563957403725732</v>
       </c>
       <c r="E17" t="n">
         <v>300</v>
@@ -708,13 +708,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7497072629036958</v>
+        <v>0.7554308583024597</v>
       </c>
       <c r="C18" t="n">
-        <v>500.4064563787904</v>
+        <v>453.2921073941156</v>
       </c>
       <c r="D18" t="n">
-        <v>1.129850853194041</v>
+        <v>1.132305296715717</v>
       </c>
       <c r="E18" t="n">
         <v>300</v>
@@ -728,13 +728,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.902530898611952</v>
+        <v>0.907382541536748</v>
       </c>
       <c r="C19" t="n">
-        <v>455.6909708058945</v>
+        <v>407.5002777408436</v>
       </c>
       <c r="D19" t="n">
-        <v>1.470095052186402</v>
+        <v>1.470681488815309</v>
       </c>
       <c r="E19" t="n">
         <v>300</v>
@@ -748,13 +748,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.066872247076556</v>
+        <v>1.069321620955514</v>
       </c>
       <c r="C20" t="n">
-        <v>685.1585371336332</v>
+        <v>635.2958437734264</v>
       </c>
       <c r="D20" t="n">
-        <v>1.791854858316053</v>
+        <v>1.786145505432032</v>
       </c>
       <c r="E20" t="n">
         <v>300</v>
@@ -768,13 +768,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.20683782271188</v>
+        <v>1.206202052670799</v>
       </c>
       <c r="C21" t="n">
-        <v>978.2601839836882</v>
+        <v>928.7524571897725</v>
       </c>
       <c r="D21" t="n">
-        <v>1.96835168429069</v>
+        <v>1.952180112773853</v>
       </c>
       <c r="E21" t="n">
         <v>300</v>
@@ -788,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.333493164280523</v>
+        <v>1.329692812945674</v>
       </c>
       <c r="C22" t="n">
-        <v>1223.025695518695</v>
+        <v>1175.339055931476</v>
       </c>
       <c r="D22" t="n">
-        <v>2.143826934566911</v>
+        <v>2.113558214195546</v>
       </c>
       <c r="E22" t="n">
         <v>300</v>
@@ -808,13 +808,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.418171426661458</v>
+        <v>1.41261375334236</v>
       </c>
       <c r="C23" t="n">
-        <v>1566.888322750817</v>
+        <v>1517.501381866683</v>
       </c>
       <c r="D23" t="n">
-        <v>2.311241168255169</v>
+        <v>2.270580626456045</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
@@ -828,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.516141500943636</v>
+        <v>1.513045766664487</v>
       </c>
       <c r="C24" t="n">
-        <v>1983.984354281974</v>
+        <v>1923.255172999557</v>
       </c>
       <c r="D24" t="n">
-        <v>2.450282544916254</v>
+        <v>2.414395053791406</v>
       </c>
       <c r="E24" t="n">
         <v>300</v>
@@ -848,13 +848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.584474742651686</v>
+        <v>1.585103368556547</v>
       </c>
       <c r="C25" t="n">
-        <v>2347.638659997003</v>
+        <v>2276.866032562149</v>
       </c>
       <c r="D25" t="n">
-        <v>2.48581330829717</v>
+        <v>2.462356420739082</v>
       </c>
       <c r="E25" t="n">
         <v>300</v>
